--- a/fichhor/list_ens.xlsx
+++ b/fichhor/list_ens.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zCour\stage\premier_test\fichhor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4C7F66-4CC3-4AE1-95B7-50729014C912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4280E4-1B34-4EC6-A9E0-EA13B393AD2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -543,7 +543,7 @@
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/fichhor/list_ens.xlsx
+++ b/fichhor/list_ens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zCour\stage\premier_test\fichhor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4280E4-1B34-4EC6-A9E0-EA13B393AD2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA54E2D-BC17-4FE4-9693-2BB77B4A90C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -540,18 +540,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" customWidth="1"/>
+    <col min="1" max="1" width="27.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -560,22 +563,8 @@
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -583,7 +572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -591,7 +580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -599,7 +588,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -607,7 +596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -615,7 +604,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
@@ -623,7 +612,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
@@ -631,7 +620,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
@@ -639,7 +628,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
@@ -647,7 +636,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
@@ -655,7 +644,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
@@ -663,7 +652,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
@@ -671,7 +660,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>26</v>
       </c>
@@ -679,7 +668,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>28</v>
       </c>
@@ -687,7 +676,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>30</v>
       </c>
